--- a/output/2018-01-01 to 2018-02-01.xlsx
+++ b/output/2018-01-01 to 2018-02-01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -92,7 +92,7 @@
     <t>['cfop_SHA']</t>
   </si>
   <si>
-    <t>['cfop_DULLERUD']</t>
+    <t>['cfop_DULLERUD_1', 'cfop_DULLERUD']</t>
   </si>
   <si>
     <t>unit(accumulative)</t>
@@ -110,6 +110,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>2016-08-101-01</t>
   </si>
   <si>
@@ -128,6 +131,24 @@
     <t>2017-09-101-01</t>
   </si>
   <si>
+    <t>['Arun Lakshmanan']</t>
+  </si>
+  <si>
+    <t>['Alex Hill']</t>
+  </si>
+  <si>
+    <t>['Harshal Maske']</t>
+  </si>
+  <si>
+    <t>['Dalton Chaffee']</t>
+  </si>
+  <si>
+    <t>['Jiyang Chen']</t>
+  </si>
+  <si>
+    <t>['Joao Porto']</t>
+  </si>
+  <si>
     <t>cfop_KWIAT</t>
   </si>
   <si>
@@ -141,6 +162,9 @@
   </si>
   <si>
     <t>cfop_DULLERUD</t>
+  </si>
+  <si>
+    <t>cfop_DULLERUD_1</t>
   </si>
 </sst>
 </file>
@@ -848,6 +872,135 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>28.8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>27.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>14.5</v>
+      </c>
+      <c r="D4">
+        <v>23.2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>9.6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>9.6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1.6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -856,7 +1009,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -870,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D2">
-        <v>28.8</v>
+        <v>45.54455445544554</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -884,13 +1037,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>27.2</v>
+        <v>28.71287128712871</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -898,13 +1051,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>23.2</v>
+        <v>17.82178217821782</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -912,13 +1065,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5">
-        <v>9.6</v>
+        <v>5.940594059405941</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -926,13 +1079,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>9.6</v>
+        <v>0.9900990099009901</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -940,107 +1093,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2">
-        <v>46</v>
-      </c>
-      <c r="D2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3">
-        <v>29</v>
-      </c>
-      <c r="D3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>0.9900990099009901</v>
       </c>
     </row>
   </sheetData>
